--- a/${project.build.directory}/test-classes/DataSet/SME.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/SME.xlsx
@@ -1293,37 +1293,37 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorporateOnboarding.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CorporateOnboarding.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
   </si>
   <si>
     <t xml:space="preserve">http://di</t>
@@ -16329,7 +16329,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16572,7 +16572,7 @@
         <v>431</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>424</v>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>30</v>
@@ -16629,7 +16629,7 @@
         <v>422</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>424</v>
@@ -16683,7 +16683,7 @@
         <v>422</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>424</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="34" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16889,7 +16889,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="34" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16904,7 +16904,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
